--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Achalasia (type 1)_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Achalasia (type 1)_spec_overall.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,17 +467,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia, particularly for liquids, is a common symptom of Achalasia due to the inability of the lower esophageal sphincter to relax properly.</t>
+          <t>Dysphagia for liquids is a classic symptom of Achalasia, particularly type 1, due to the failure of the lower esophageal sphincter to relax.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pain relieved with regurgitation is present.</t>
+          <t>Raynauds phenomenon reported is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regurgitation relief is more indicative of conditions like gastroesophageal reflux disease (GERD) rather than Achalasia, where regurgitation is not typically a relieving factor.</t>
+          <t>Raynaud's phenomenon is more commonly associated with connective tissue disorders, not Achalasia.</t>
         </is>
       </c>
     </row>
@@ -488,39 +489,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysphagia for solids is also characteristic of Achalasia, indicating esophageal obstruction.</t>
+          <t>Dysphagia for solids, along with liquids, is indicative of esophageal motility disorders like Achalasia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Telangiectasias reported is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>In Achalasia, antacids may not be effective, but the absence of relief suggests a different underlying issue rather than the classic presentation of Achalasia.</t>
+          <t>Telangiectasias are typically associated with systemic sclerosis, not Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Current reflux is present.</t>
+          <t>Non-progressive dysphagia: liquids throughout difficulty swallowing is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reflux can occur in Achalasia due to the failure of the lower esophageal sphincter to maintain closure, leading to backflow of stomach contents.</t>
+          <t>Non-progressive dysphagia for both liquids and solids is characteristic of Achalasia, distinguishing it from other causes of dysphagia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present.</t>
+          <t>Hand pain out of proportion to other joints is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chronic heartburn is more commonly associated with GERD rather than Achalasia, which typically presents with more acute symptoms related to swallowing.</t>
+          <t>Disproportionate hand pain is more indicative of rheumatologic conditions rather than Achalasia.</t>
         </is>
       </c>
     </row>
@@ -532,39 +533,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Weight loss can occur in Achalasia due to difficulty swallowing and reduced food intake.</t>
+          <t>Weight loss can occur in Achalasia due to difficulty swallowing and reduced caloric intake.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Long-standing reflux (duration of years) is present.</t>
+          <t>Current heartburn is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chronic reflux is more characteristic of GERD, which is less likely to be the primary issue in Achalasia.</t>
+          <t>Heartburn is more commonly associated with gastroesophageal reflux disease (GERD) than with Achalasia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pain when swallowing (aka odynophagia) is present.</t>
+          <t>Pain relieved with regurgitation is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Odynophagia can be associated with Achalasia as the esophagus may become inflamed or irritated due to food obstruction.</t>
+          <t>Regurgitation relieving pain is a symptom associated with Achalasia, as food and liquid can be trapped in the esophagus.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hoarse voice reported is absent.</t>
+          <t>Current reflux is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A hoarse voice can indicate esophageal or laryngeal involvement, which is not typical in Achalasia, suggesting an alternative diagnosis.</t>
+          <t>Reflux symptoms are more typical of GERD, which can mimic but is distinct from Achalasia.</t>
         </is>
       </c>
     </row>
@@ -612,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>middle age is present</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Achalasia is more commonly diagnosed in females, which supports the likelihood of this diagnosis.</t>
+          <t>Achalasia (type 1) is more commonly diagnosed in middle-aged individuals, making this finding supportive of the diagnosis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of prior treatment with radiation to the neck, arm, or jaw</t>
+          <t>Prior treatment with radiation to the neck, arm, or jaw is absent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radiation exposure is a known risk factor for esophageal conditions; its absence may suggest a lower likelihood of Achalasia.</t>
+          <t>Radiation treatment can lead to secondary achalasia, so its absence reduces the likelihood of achalasia being present.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Female is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Achalasia typically presents in middle-aged individuals, making this demographic detail supportive of the diagnosis.</t>
+          <t>While achalasia can occur in both genders, some studies suggest a slight female predominance, which may support the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of diagnosed hypertension</t>
+          <t>type 2 diabetes is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hypertension is often associated with other esophageal conditions; its absence may indicate a lower risk for Achalasia.</t>
+          <t>Diabetes can be associated with esophageal motility disorders, so its absence may reduce the likelihood of achalasia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>takes amlodipine is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly linked, the presence of hypertension treatment may suggest a background of chronic conditions that can coexist with Achalasia.</t>
+          <t>Amlodipine is a calcium channel blocker that can be used to manage esophageal motility disorders, which may suggest a history of esophageal issues.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of obesity</t>
+          <t>obesity is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Obesity is a risk factor for various gastrointestinal disorders; its absence may reduce the likelihood of Achalasia.</t>
+          <t>Obesity can exacerbate esophageal motility issues, so its absence may reduce the likelihood of achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder</t>
+          <t>recent medication changes is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alcohol use disorder can complicate or mimic esophageal symptoms; its absence may help clarify the diagnosis towards Achalasia.</t>
+          <t>The absence of recent medication changes suggests stability in treatment, which might indicate a chronic condition like achalasia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of type 2 diabetes</t>
+          <t>diagnosed hypertension is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Type 2 diabetes can lead to gastrointestinal motility issues; its absence may suggest a lower likelihood of Achalasia.</t>
+          <t>Hypertension is often associated with other comorbidities that can affect esophageal function, so its absence may reduce the likelihood of achalasia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>Asthma is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nicotine dependence can lead to esophageal motility disorders; its absence may support a diagnosis of Achalasia.</t>
+          <t>The absence of asthma, which can mimic some symptoms of achalasia, may help in differentiating the condition.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of environmental allergies</t>
+          <t>Environmental allergies is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Environmental allergies are not typically associated with Achalasia; their absence does not support the diagnosis.</t>
+          <t>Allergies can sometimes mimic or exacerbate symptoms similar to achalasia, so their absence may reduce the likelihood of achalasia.</t>
         </is>
       </c>
     </row>
@@ -768,7 +769,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social stress can exacerbate gastrointestinal symptoms, including those seen in Achalasia (type 1), making it a relevant factor.</t>
+          <t>Social stress can exacerbate symptoms related to esophageal motility disorders, including achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -778,7 +779,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of a family history of autoimmune diseases like Rheumatoid Arthritis may suggest a lower likelihood of related esophageal motility disorders.</t>
+          <t>The absence of autoimmune conditions in the family may reduce the likelihood of autoimmune-related esophageal motility disorders.</t>
         </is>
       </c>
     </row>
@@ -790,17 +791,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tobacco use has been associated with various esophageal disorders, including Achalasia (type 1), suggesting a potential link.</t>
+          <t>While not directly linked, prior tobacco use can contribute to esophageal conditions, potentially increasing the risk of motility disorders.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of recent travel may reduce the likelihood of infections or conditions that could mimic or contribute to esophageal symptoms, making Achalasia (type 1) less likely.</t>
+          <t>The absence of current tobacco use reduces the risk of esophageal irritation or conditions that could mimic achalasia.</t>
         </is>
       </c>
     </row>
@@ -812,17 +813,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>While not directly linked, a family history of cardiovascular issues may suggest a genetic predisposition to various conditions, including esophageal motility disorders.</t>
+          <t>Though not directly related, cardiovascular issues in the family may indicate a predisposition to systemic conditions that could affect esophageal function.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures suggests that there are no iatrogenic causes for esophageal symptoms, which could otherwise complicate the diagnosis.</t>
+          <t>The absence of recent travel reduces the likelihood of infectious causes of esophageal symptoms that could mimic achalasia.</t>
         </is>
       </c>
     </row>
@@ -834,17 +835,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a family history of cancer may suggest a lower likelihood of malignancy-related esophageal issues, which can sometimes mimic Achalasia (type 1).</t>
+          <t>The absence of a family history of cancer may slightly favor achalasia over other esophageal conditions that could be related to malignancy.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of gestational complications may indicate a lower likelihood of systemic issues that could affect esophageal motility, making Achalasia (type 1) less likely.</t>
+          <t>The absence of recent medical procedures reduces the likelihood of iatrogenic causes of esophageal symptoms.</t>
         </is>
       </c>
     </row>
@@ -856,17 +857,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of alcohol use is relevant as alcohol can contribute to esophageal disorders; its absence may support the diagnosis of Achalasia (type 1) over other conditions.</t>
+          <t>The absence of alcohol use removes a potential irritant that could mimic or exacerbate symptoms of achalasia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Gestational complications with prior pregnancy is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use may suggest a lower risk for esophageal disorders, including Achalasia (type 1), as ongoing use is often linked to such conditions.</t>
+          <t>The absence of gestational complications suggests a lower likelihood of systemic conditions that could affect esophageal motility.</t>
         </is>
       </c>
     </row>
@@ -919,17 +920,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weight loss is a common symptom in patients with Achalasia due to difficulty swallowing and subsequent reduced food intake.</t>
+          <t>Weight loss is a common symptom in achalasia due to difficulty swallowing and reduced food intake.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Raynaud's phenomenon on exam is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A hoarse voice can indicate laryngeal involvement or aspiration, which is less common in Achalasia.</t>
+          <t>Raynaud's phenomenon can be associated with connective tissue disorders that may mimic or overlap with achalasia.</t>
         </is>
       </c>
     </row>
@@ -941,83 +942,234 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>While not classic for Achalasia, telangiectasias can be associated with connective tissue diseases that may overlap with esophageal motility disorders.</t>
+          <t>While not specific, telangiectasias can be associated with systemic conditions that may overlap with esophageal motility disorders.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Hoarse voice observed is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of cough suggests that there is no aspiration, which is often a complication of Achalasia.</t>
+          <t>Hoarseness can occur in achalasia due to esophageal compression or reflux, so its absence may argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Halitosis observed is absent.</t>
+          <t>Absence of obesity by vital signs.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Absence of halitosis can be indicative of less esophageal stasis, which is often present in Achalasia due to food retention.</t>
+          <t>Achalasia often leads to weight loss, so the absence of obesity supports the diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>Cough observed is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of Raynaud's phenomenon suggests that there is no underlying connective tissue disease, which can sometimes be associated with esophageal motility disorders.</t>
+          <t>Cough can be a symptom of achalasia due to aspiration or reflux, so its absence may argue against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Absence of high blood pressure when checked.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Absence of cough may suggest that there is no aspiration or respiratory complications, which can occur in Achalasia due to food regurgitation.</t>
+          <t>Achalasia is not typically associated with hypertension, so its absence is consistent with the condition.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Obesity by vital signs is absent.</t>
+          <t>Hand thickening observed is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of obesity may indicate that the patient is not experiencing the typical weight gain that can occur in other esophageal conditions.</t>
+          <t>Hand thickening can be associated with scleroderma, which can mimic achalasia, so its absence may argue against a secondary cause of achalasia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent.</t>
+          <t>Absence of epigastric pain on palpation.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of epigastric pain may suggest that the patient is not experiencing significant gastric distress, which can be seen in Achalasia.</t>
+          <t>Achalasia typically presents with dysphagia rather than epigastric pain, so its absence is consistent with the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>High blood pressure when checked is absent.</t>
+          <t>Finger ulcers observed is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of high blood pressure may suggest that there are no systemic complications that can sometimes accompany esophageal disorders.</t>
+          <t>Finger ulcers can be associated with systemic sclerosis, which can mimic achalasia, so their absence may argue against a secondary cause of achalasia.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Achalasia (type 1)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Achalasia (type 1)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Achalasia (type 1)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Achalasia (type 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Aspiration is not a typical finding in type 1 Achalasia, so its absence does not strongly support the diagnosis.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Aspiration can occur in Achalasia due to esophageal dysfunction, so its absence may slightly argue against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Interstitial lung disease (ILD) is not associated with Achalasia, so its absence does not strongly support the diagnosis.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The absence of ILD is not relevant to Achalasia, as ILD is not typically associated with it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A widened mediastinum is not a typical finding in Achalasia, so its absence does not strongly support the diagnosis.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A widened mediastinum is not expected in Achalasia, so its absence does not argue against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not directly related to Achalasia, so its presence does not strongly support the diagnosis.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is unrelated to Achalasia, so its presence does not argue against the diagnosis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A strong positive ANA is not typically associated with Achalasia, so its absence does not strongly support the diagnosis.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA does not argue against Achalasia, as ANA is not typically associated with it.</t>
         </is>
       </c>
     </row>
